--- a/SisRestaurant/src/main/resources/doc/plantilla_importacion.xlsx
+++ b/SisRestaurant/src/main/resources/doc/plantilla_importacion.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>--- CATEGORIAS ---</t>
   </si>
@@ -45,6 +45,63 @@
   </si>
   <si>
     <t>--- TIPO DOC VENTA ---</t>
+  </si>
+  <si>
+    <t>Ciglas</t>
+  </si>
+  <si>
+    <t>plato</t>
+  </si>
+  <si>
+    <t>lunes</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>administrador</t>
+  </si>
+  <si>
+    <t>boleta</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>sopa</t>
+  </si>
+  <si>
+    <t>martes</t>
+  </si>
+  <si>
+    <t>ruc</t>
+  </si>
+  <si>
+    <t>cajero</t>
+  </si>
+  <si>
+    <t>factura</t>
+  </si>
+  <si>
+    <t>F001</t>
+  </si>
+  <si>
+    <t>bebidas</t>
+  </si>
+  <si>
+    <t>jueves</t>
+  </si>
+  <si>
+    <t>pasaport</t>
+  </si>
+  <si>
+    <t>contador</t>
+  </si>
+  <si>
+    <t>nota de venta</t>
+  </si>
+  <si>
+    <t>N001</t>
   </si>
 </sst>
 </file>
@@ -89,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -103,6 +160,7 @@
     <col min="9" max="9" width="7.140625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.5234375" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="19.15625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="5.53515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -150,6 +208,144 @@
       <c r="M2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="N2" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>5.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
